--- a/tests/testthat/fixtures/metadata/metadata_no_timeval_or_codes_by_metamake.xlsx
+++ b/tests/testthat/fixtures/metadata/metadata_no_timeval_or_codes_by_metamake.xlsx
@@ -260,7 +260,7 @@
     <tableColumn id="1" name="keyword"/>
     <tableColumn id="2" name="value"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -274,7 +274,7 @@
     <tableColumn id="4" name="en_note"/>
     <tableColumn id="5" name="type"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -288,7 +288,7 @@
     <tableColumn id="4" name="en_code_label"/>
     <tableColumn id="5" name="precision"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -300,7 +300,7 @@
     <tableColumn id="2" name="gender"/>
     <tableColumn id="3" name="figures_"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 

--- a/tests/testthat/fixtures/metadata/metadata_no_timeval_or_codes_by_metamake.xlsx
+++ b/tests/testthat/fixtures/metadata/metadata_no_timeval_or_codes_by_metamake.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t xml:space="preserve">keyword</t>
   </si>
@@ -147,9 +147,6 @@
   </si>
   <si>
     <t xml:space="preserve">gender</t>
-  </si>
-  <si>
-    <t xml:space="preserve">figures_</t>
   </si>
   <si>
     <t xml:space="preserve">figures</t>
@@ -298,7 +295,7 @@
   <tableColumns count="3">
     <tableColumn id="1" name="type"/>
     <tableColumn id="2" name="gender"/>
-    <tableColumn id="3" name="figures_"/>
+    <tableColumn id="3" name="value"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -847,12 +844,12 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>44</v>
+        <v>1</v>
       </c>
       <c r="C4"/>
       <c r="D4"/>
       <c r="E4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -884,16 +881,16 @@
         <v>37</v>
       </c>
       <c r="B1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" t="s">
         <v>46</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>47</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>48</v>
-      </c>
-      <c r="E1" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="2">
@@ -901,13 +898,13 @@
         <v>43</v>
       </c>
       <c r="B2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E2"/>
     </row>
@@ -916,13 +913,13 @@
         <v>43</v>
       </c>
       <c r="B3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C3" t="n">
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E3"/>
     </row>
@@ -931,13 +928,13 @@
         <v>40</v>
       </c>
       <c r="B4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E4"/>
     </row>
@@ -946,13 +943,13 @@
         <v>40</v>
       </c>
       <c r="B5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C5" t="n">
         <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E5"/>
     </row>
@@ -961,13 +958,13 @@
         <v>40</v>
       </c>
       <c r="B6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C6" t="n">
         <v>3</v>
       </c>
       <c r="D6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E6"/>
     </row>
@@ -976,13 +973,13 @@
         <v>40</v>
       </c>
       <c r="B7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C7" t="n">
         <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E7"/>
     </row>
@@ -1005,7 +1002,7 @@
   <cols>
     <col min="1" max="1" width="4.71" hidden="0" customWidth="1"/>
     <col min="2" max="2" width="6.71" hidden="0" customWidth="1"/>
-    <col min="3" max="3" width="8.71" hidden="0" customWidth="1"/>
+    <col min="3" max="3" width="5.71" hidden="0" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1016,95 +1013,95 @@
         <v>43</v>
       </c>
       <c r="C1" t="s">
-        <v>44</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/tests/testthat/fixtures/metadata/metadata_no_timeval_or_codes_by_metamake.xlsx
+++ b/tests/testthat/fixtures/metadata/metadata_no_timeval_or_codes_by_metamake.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
   <si>
     <t xml:space="preserve">keyword</t>
   </si>
@@ -147,6 +147,9 @@
   </si>
   <si>
     <t xml:space="preserve">gender</t>
+  </si>
+  <si>
+    <t xml:space="preserve">figures_</t>
   </si>
   <si>
     <t xml:space="preserve">figures</t>
@@ -295,7 +298,7 @@
   <tableColumns count="3">
     <tableColumn id="1" name="type"/>
     <tableColumn id="2" name="gender"/>
-    <tableColumn id="3" name="value"/>
+    <tableColumn id="3" name="figures_"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -844,12 +847,12 @@
     <row r="4">
       <c r="A4"/>
       <c r="B4" t="s">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="C4"/>
       <c r="D4"/>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -881,16 +884,16 @@
         <v>37</v>
       </c>
       <c r="B1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2">
@@ -898,13 +901,13 @@
         <v>43</v>
       </c>
       <c r="B2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E2"/>
     </row>
@@ -913,13 +916,13 @@
         <v>43</v>
       </c>
       <c r="B3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C3" t="n">
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E3"/>
     </row>
@@ -928,13 +931,13 @@
         <v>40</v>
       </c>
       <c r="B4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E4"/>
     </row>
@@ -943,13 +946,13 @@
         <v>40</v>
       </c>
       <c r="B5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C5" t="n">
         <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E5"/>
     </row>
@@ -958,13 +961,13 @@
         <v>40</v>
       </c>
       <c r="B6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C6" t="n">
         <v>3</v>
       </c>
       <c r="D6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E6"/>
     </row>
@@ -973,13 +976,13 @@
         <v>40</v>
       </c>
       <c r="B7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C7" t="n">
         <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E7"/>
     </row>
@@ -1002,7 +1005,7 @@
   <cols>
     <col min="1" max="1" width="4.71" hidden="0" customWidth="1"/>
     <col min="2" max="2" width="6.71" hidden="0" customWidth="1"/>
-    <col min="3" max="3" width="5.71" hidden="0" customWidth="1"/>
+    <col min="3" max="3" width="8.71" hidden="0" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1013,95 +1016,95 @@
         <v>43</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" t="s">
         <v>51</v>
       </c>
-      <c r="B3" t="s">
-        <v>50</v>
-      </c>
       <c r="C3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C9" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
